--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-10/0_weekly_daily.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-10/0_weekly_daily.xlsx
@@ -70,7 +70,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] In order to recoup operational expenses and equipment upkeep, maintaining Rhodes Island’s supply line is one of the most important daily responsibilities.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] In order to recoup operational expenses and equipment upkeep, maintaining Rhodes Island's supply line is one of the most important daily responsibilities.
 </t>
   </si>
   <si>
